--- a/data/non thompson registry sources.xlsx
+++ b/data/non thompson registry sources.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Google Drive\Data\Predicting NZ Food Webs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Google Drive\Data\Predicting NZ Food Webs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>source.id</t>
   </si>
@@ -78,14 +79,688 @@
   </si>
   <si>
     <t>17 = Winterbourn MJ. 1996. Life history, production and food of Aphrophila neozelandica (Diptera: TipuIidae) in a New Zealand stream. Aquatic Insects 18(1):45-53.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bonnett M.L. &amp; Lambert P.W. (2002) Diet of giant kokopu, Galaxias argenteus. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 361–369.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collier K.J., Wright‐Stow A.E. &amp; Smith B.J. (2004) Trophic basis of production for a mayfly in a North Island, New Zealand, forest stream: Contributions of benthic versus hyporheic habitats and implications for restoration. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 301–314.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cowley D.R. (1978) Studies on the larvae of New Zealand Trichoptera. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Zoology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 639–750.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crosby T.K. (1975) Food of the New Zealand trichopterans Hydrobiosis parumbripennis McFarlane and Hydropsyche colonica McLachlan. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Freshwater Biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 105–114.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Devonport B.F. &amp; Winterbourn M.J. (1976) The feeding relationships of two invertebrate predators in a New Zealand river. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Freshwater Biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 167–176.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hogsden K.L. &amp; Harding J.S. (2012) Anthropogenic and natural sources of acidity and metals and their influence on the structure of stream food webs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Environmental Pollution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 466–474.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hollows J.W., Townsend C.R. &amp; Collier K.J. (2002) Diet of the crayfish Paranephrops zealandicus in bush and pasture streams: Insights from stable isotopes and stomach analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 129–142.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jellyman D.J. (1996) Diet of longfinned eels, Anguilla dieffenbachii, in Lake Rotoiti, Nelson Lakes, New Zealand. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 365–369.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jellyman D.J. (1989) Diet of two species of freshwater eel (Anguilla spp.) in Lake Pounui, New Zealand. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1–10.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jellyman P.G. &amp; Harding J.S. (2016) Disentangling the stream community impacts of Didymosphenia geminata: How are higher trophic levels affected? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Biological Invasions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 3419–3435.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">McDowall R.M., Main M.R., West D.W. &amp; Lyon G.L. (1996) Terrestrial and benthic foods in the diet of the shortjawed kokopu, Galaxias postvectis Clarke (Teleostei: Galaxiidae). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 257–269.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rounick J.S. &amp; Hicks B.J. (1985) The stable carbon isotope ratios of fish and their invertebrate prey in four New Zealand rivers. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Freshwater Biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 207–214.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Winterbourn M.J. (1996) Life history, production and food of Aphrophila neozelandica (Diptera: TipuIidae) in a New Zealand stream. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aquatic Insects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 45–53.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Winterbourn M.J., Cowie B. &amp; Rounick R.S. (1984) Food resources and ingestion patterns of insects along a west coast, south island, river system. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Zealand Journal of Marine and Freshwater Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 379–388.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,12 +784,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -499,4 +1203,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>